--- a/biology/Botanique/Archéobiologie/Archéobiologie.xlsx
+++ b/biology/Botanique/Archéobiologie/Archéobiologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arch%C3%A9obiologie</t>
+          <t>Archéobiologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'archéobiologie est une science qui traite de l'étude des restes biologiques recueillis sur un site archéologique, à la suite de fouilles. L'objectif est d'obtenir des informations environnementales sur la vie des gens durant les périodes préhistoriques et historiques. Les questions culturelles et historiques jouent un grand rôle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arch%C3%A9obiologie</t>
+          <t>Archéobiologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Spécialisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon la nature des restes biologiques, on distingue :
 l'archéobotanique qui s'intéresse aux restes de végétaux ;
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arch%C3%A9obiologie</t>
+          <t>Archéobiologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Laboratoires spécialisés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Suisse s'exprime sur ce sujet dans la Société Suisse pour la Recherche sur le Quaternaire[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Suisse s'exprime sur ce sujet dans la Société Suisse pour la Recherche sur le Quaternaire.
 La France possède :
-le Centre de Bio-Archéologie et d'Écologie situé à l'Institut de Botanique de Montpellier, où sont pratiquées des analyses anthracologiques (sur des charbons de bois et des noyaux carbonisés)[2]
+le Centre de Bio-Archéologie et d'Écologie situé à l'Institut de Botanique de Montpellier, où sont pratiquées des analyses anthracologiques (sur des charbons de bois et des noyaux carbonisés)
 le Laboratoire d'Archéologie médiévale méditerranéenne (LAMM) (CNRS : UMR6572, université de Provence - Aix-Marseille I),
 qui s'intéressent à l'archéobiologie de l'olivier. Le Muséum national d'histoire naturelle centralise les résultats des recherches.
 </t>
